--- a/biology/Zoologie/Bertholdia_trigona/Bertholdia_trigona.xlsx
+++ b/biology/Zoologie/Bertholdia_trigona/Bertholdia_trigona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bertholdia trigona est une espèce de lépidoptères (papillons) de la famille des Erebidae et de la sous-famille des Arctiinae. On la trouve dans le sud-ouest des États-Unis.
 </t>
@@ -511,10 +523,12 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bertholdia trigona a pour noms vulgaires ou vernaculaires :
-en français : papillon tigre équatorien[1]
+en français : papillon tigre équatorien
 en anglais : Grote's bertholdia.</t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom trigona vient du latin et signifie "triangle"[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom trigona vient du latin et signifie "triangle".
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Brouillage de l'écholocalisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2009, des chercheurs américains démontrent que cet insecte "brouille" l'écholocalisation des chauves-souris en émettant des clics ultrasoniques, à raison de 4500 par seconde. Ceci permet à Bertholdia trigona d'être moins détectable par ce prédateur[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2009, des chercheurs américains démontrent que cet insecte "brouille" l'écholocalisation des chauves-souris en émettant des clics ultrasoniques, à raison de 4500 par seconde. Ceci permet à Bertholdia trigona d'être moins détectable par ce prédateur,.
 </t>
         </is>
       </c>
